--- a/NformTester/NformTester/Keywordscripts/600.10.30.190_AlarmTriggeredByDeviceWhichUnderMaintenanceMode.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.190_AlarmTriggeredByDeviceWhichUnderMaintenanceMode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1273,12 +1273,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CI$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CI:$CI</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8469" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8469" uniqueCount="912">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4082,10 +4082,6 @@
   </si>
   <si>
     <t>$SNMP_SinAuto_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_device_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4312,9 +4308,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -4351,7 +4347,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4637,8 +4633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F206" sqref="F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4648,9 +4644,9 @@
     <col min="5" max="5" width="27.125" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -8327,7 +8323,7 @@
         <v>887</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J150" s="4" t="b">
         <v>1</v>

--- a/NformTester/NformTester/Keywordscripts/600.10.30.190_AlarmTriggeredByDeviceWhichUnderMaintenanceMode.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.190_AlarmTriggeredByDeviceWhichUnderMaintenanceMode.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8469" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8470" uniqueCount="914">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4053,10 +4053,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4077,12 +4073,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SingleAuto_0$</t>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SinAuto_0$</t>
+    <t>$NAME_SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4248,7 +4255,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4259,8 +4266,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4306,10 +4316,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="4">
@@ -4633,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F206" sqref="F206"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4875,10 +4890,10 @@
         <v>856</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>910</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>911</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>857</v>
@@ -5280,10 +5295,12 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="B23" s="13"/>
+      <c r="A23" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>913</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -5500,7 +5517,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5817,7 +5834,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -6170,13 +6187,13 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="9" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="I59" s="9">
         <v>1</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -6455,15 +6472,15 @@
         <v>861</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="9"/>
       <c r="H71" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J71" s="4" t="b">
         <v>1</v>
@@ -6556,7 +6573,7 @@
         <v>56</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -6854,13 +6871,13 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="9" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="I88" s="9">
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -7104,7 +7121,7 @@
         <v>871</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -7240,7 +7257,7 @@
         <v>56</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
@@ -7538,13 +7555,13 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="9" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="I117" s="9">
         <v>1</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -7788,7 +7805,7 @@
         <v>897</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
@@ -8030,13 +8047,13 @@
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="9" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="I138" s="9">
         <v>1</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -8323,7 +8340,7 @@
         <v>887</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J150" s="4" t="b">
         <v>1</v>
@@ -8416,7 +8433,7 @@
         <v>56</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -8714,13 +8731,13 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="9" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="I167" s="9">
         <v>1</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -8964,7 +8981,7 @@
         <v>871</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
@@ -9100,7 +9117,7 @@
         <v>56</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
@@ -9398,13 +9415,13 @@
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="9" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="I196" s="9">
         <v>1</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
@@ -9648,7 +9665,7 @@
         <v>897</v>
       </c>
       <c r="J206" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
